--- a/xlsx/全球变暖_intext.xlsx
+++ b/xlsx/全球变暖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
   <si>
     <t>全球变暖</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>氣候變遷</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_全球变暖</t>
+    <t>气候变迁</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_全球变暖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -53,31 +53,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溫室效應</t>
+    <t>温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>氣候變化</t>
+    <t>气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>效應</t>
+    <t>效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96%E6%95%88%E5%BA%94</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%85%B8%E9%88%A3</t>
   </si>
   <si>
-    <t>碳酸鈣</t>
+    <t>碳酸钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94</t>
@@ -209,13 +209,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%BA%A6</t>
   </si>
   <si>
-    <t>温度</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E7%AB%AF%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極端氣候</t>
+    <t>极端气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%B0%B4</t>
@@ -227,25 +224,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B1%E7%81%BD</t>
   </si>
   <si>
-    <t>旱災</t>
+    <t>旱灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B5%AA</t>
   </si>
   <si>
-    <t>熱浪</t>
+    <t>热浪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E6%8D%B2%E9%A2%A8</t>
   </si>
   <si>
-    <t>龍捲風</t>
+    <t>龙捲风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A4%A9</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E8%A8%80</t>
   </si>
   <si>
-    <t>預言</t>
+    <t>预言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E6%B5%81%E5%B1%82</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E6%BA%AB%E6%9A%96%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中世紀溫暖時期</t>
+    <t>中世纪温暖时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%86%B0%E6%9C%9F</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E9%81%94%E5%BE%B7%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>戈達德太空研究所</t>
+    <t>戈达德太空研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%B0%A3%E8%B1%A1%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界氣象組織</t>
+    <t>世界气象组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B0%A3%E5%80%99%E7%A0%94%E7%A9%B6%E5%96%AE%E4%BD%8D</t>
   </si>
   <si>
-    <t>英國氣候研究單位</t>
+    <t>英国气候研究单位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>熱島現象</t>
+    <t>热岛现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%BE%85%E8%AB%BE</t>
   </si>
   <si>
-    <t>格羅諾</t>
+    <t>格罗诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E8%98%AD%E7%B8%A3</t>
   </si>
   <si>
-    <t>宜蘭縣</t>
+    <t>宜兰县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BC%E7%8E%89%E7%B8%A3</t>
   </si>
   <si>
-    <t>埼玉縣</t>
+    <t>埼玉县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E8%B0%B7%E5%B8%82</t>
@@ -401,13 +398,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E7%A7%91%E7%B6%AD%E5%A5%87%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>米蘭科維奇循環</t>
+    <t>米兰科维奇循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E6%B2%B3%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>冰河時期</t>
+    <t>冰河时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E6%B4%BB%E5%8A%A8</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E8%AD%98</t>
   </si>
   <si>
-    <t>共識</t>
+    <t>共识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%A6%88</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>太陽輻射</t>
+    <t>太阳辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B9%E7%A9%8D%E7%86%B1%E5%AE%B9</t>
   </si>
   <si>
-    <t>容積熱容</t>
+    <t>容积热容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>熱輻射</t>
+    <t>热辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%8B%A2%E8%83%BD</t>
   </si>
   <si>
-    <t>全球暖化勢能</t>
+    <t>全球暖化势能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%90%AC%E5%88%86%E7%8E%87</t>
   </si>
   <si>
-    <t>百萬分率</t>
+    <t>百万分率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%8D%E4%BC%90%E6%A3%AE%E6%9E%97</t>
@@ -497,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%9F%BB</t>
   </si>
   <si>
-    <t>白蟻</t>
+    <t>白蚁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%96%93%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E5%B0%88%E9%96%80%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>政府間氣候變化專門委員會</t>
+    <t>政府间气候变化专门委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E4%BA%9A%E6%B0%AE</t>
@@ -533,19 +530,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E6%BA%B6%E8%86%A0</t>
   </si>
   <si>
-    <t>氣溶膠</t>
+    <t>气溶胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8_(%E6%9C%9F%E5%88%8A)</t>
   </si>
   <si>
-    <t>科學 (期刊)</t>
+    <t>科学 (期刊)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖地牙哥分校</t>
+    <t>加利福尼亚大学圣地牙哥分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sami_Solanki</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%9A%96%E5%8C%96%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>地球暖化爭議</t>
+    <t>地球暖化争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -575,25 +572,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
+    <t>发展中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%8D%94%E8%AD%B0%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都協議書</t>
+    <t>京都协议书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>西方社會</t>
+    <t>西方社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philip_Cooney</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA</t>
   </si>
   <si>
-    <t>風險</t>
+    <t>风险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90</t>
@@ -659,13 +656,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿爾卑斯山</t>
+    <t>阿尔卑斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%90%8A%E5%A5%87%E5%86%B0%E5%B7%9D</t>
   </si>
   <si>
-    <t>阿萊奇冰川</t>
+    <t>阿莱奇冰川</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D</t>
@@ -701,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
   </si>
   <si>
-    <t>傳染病</t>
+    <t>传染病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E5%8C%96</t>
@@ -773,13 +770,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AD%90</t>
   </si>
   <si>
-    <t>北歐</t>
+    <t>北欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%A5%E8%8D%92</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>農地</t>
+    <t>农地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E5%8A%9B</t>
@@ -845,13 +842,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%9E%8D%E5%90%88</t>
@@ -863,13 +860,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>純電動車</t>
+    <t>纯电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E7%A8%8E</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>京都議定書</t>
+    <t>京都议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E7%A7%91%E6%8A%80</t>
@@ -899,19 +896,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%90%A6%E5%AE%9A%E8%AA%AA</t>
   </si>
   <si>
-    <t>全球暖化否定說</t>
+    <t>全球暖化否定说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96%E6%B0%91%E8%AA%BF%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>公共政策民調基金會</t>
+    <t>公共政策民调基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%A0%BC%E6%96%AF%E5%A4%A7%E5%AD%A6</t>
@@ -941,25 +938,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國副總統</t>
+    <t>美国副总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%C2%B7%E9%AB%98%E7%88%BE</t>
   </si>
   <si>
-    <t>艾爾·高爾</t>
+    <t>艾尔·高尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%81%93%E5%A4%AB%C2%B7%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -971,13 +968,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>澳洲總理</t>
+    <t>澳洲总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
@@ -1007,13 +1004,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E7%B6%B1%E8%A6%81%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國氣候變化綱要公約</t>
+    <t>联合国气候变化纲要公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE%E8%AD%B0%E5%AE%9A%E6%9B%B8</t>
   </si>
   <si>
-    <t>蒙特利爾議定書</t>
+    <t>蒙特利尔议定书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8E%98%E8%B7%AF%E7%BA%BF%E5%9B%BE</t>
@@ -1031,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>巴黎協定</t>
+    <t>巴黎协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E5%A4%A7%E9%A8%99%E5%B1%80</t>
   </si>
   <si>
-    <t>全球暖化大騙局</t>
+    <t>全球暖化大骗局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E9%BB%AF%E5%8C%96</t>
@@ -1049,13 +1046,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AC%B0-%E5%8D%97%E6%96%B9%E6%8C%AF%E7%9B%AA%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>聖嬰-南方振盪現象</t>
+    <t>圣婴-南方振荡现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境保護</t>
+    <t>环境保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%81%BD</t>
   </si>
   <si>
-    <t>天災</t>
+    <t>天灾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1085,37 +1082,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E8%83%BD%E6%B8%9B%E7%A2%B3</t>
   </si>
   <si>
-    <t>節能減碳</t>
+    <t>节能减碳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%95%B4%E5%90%88%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>建築整合太陽能</t>
+    <t>建筑整合太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠建築</t>
+    <t>绿建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>風力發電廠</t>
+    <t>风力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8A%A8%E5%8A%9B%E8%BD%A6</t>
@@ -1127,7 +1124,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0%E9%9B%BB%E5%8B%95%E8%BB%8A</t>
   </si>
   <si>
-    <t>電池電動車</t>
+    <t>电池电动车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E8%BD%A6</t>
@@ -1139,13 +1136,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E9%90%B5%E8%B7%AF%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力鐵路車輛</t>
+    <t>混合动力铁路车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB%E8%83%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>氫能車</t>
+    <t>氢能车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Portable_Document_Format</t>
@@ -1235,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>英國廣播公司新聞網</t>
+    <t>英国广播公司新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%94%B5%E8%A7%86%E7%BD%91</t>
@@ -1247,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E6%A2%A8%E6%99%A8%E9%8B%92%E5%A0%B1</t>
   </si>
   <si>
-    <t>雪梨晨鋒報</t>
+    <t>雪梨晨锋报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%A0%87%E5%87%86%E8%BF%9E%E7%BB%AD%E5%87%BA%E7%89%88%E7%89%A9%E5%8F%B7</t>
@@ -1259,19 +1256,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%A9%E4%BB%B6%E8%AD%98%E5%88%A5%E8%99%9F</t>
   </si>
   <si>
-    <t>數位物件識別號</t>
+    <t>数位物件识别号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B</t>
   </si>
   <si>
-    <t>劍橋</t>
+    <t>剑桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>劍橋大學出版社</t>
+    <t>剑桥大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E6%9D%A5%E6%B0%B4%E4%B8%96%E7%95%8C</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%97%A5%E4%B9%8B%E5%BE%8C</t>
   </si>
   <si>
-    <t>明日之後</t>
+    <t>明日之后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%BE%E4%BB%A5%E5%BF%BD%E8%A7%86%E7%9A%84%E7%9C%9F%E7%9B%B8</t>
@@ -1295,13 +1292,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%BE%88%E7%BE%8E%E6%9C%89%E8%B3%B4%E4%BD%A0</t>
   </si>
   <si>
-    <t>地球很美有賴你</t>
+    <t>地球很美有赖你</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2012_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>2012 (電影)</t>
+    <t>2012 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9A%E6%98%A7%E5%B9%B4%E4%BB%A3</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%A4%A9%E5%8B%95%E5%9C%B0</t>
   </si>
   <si>
-    <t>冰天動地</t>
+    <t>冰天动地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/TVB</t>
@@ -1331,13 +1328,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E6%B0%B4%E4%BE%86%E8%87%A8%E5%89%8D</t>
   </si>
   <si>
-    <t>洪水來臨前</t>
+    <t>洪水来临前</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%A5%A7%E7%B4%8D%E5%A4%9A%C2%B7%E7%8B%84%E5%8D%A1%E7%9A%AE%E6%AD%90</t>
   </si>
   <si>
-    <t>李奧納多·狄卡皮歐</t>
+    <t>李奥纳多·狄卡皮欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%C2%B12%E2%84%83</t>
@@ -1361,19 +1358,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
   </si>
   <si>
-    <t>全球變暖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AE%E5%BA%A6%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>亮度溫度</t>
+    <t>亮度温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>有效溫度</t>
+    <t>有效温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%A2%B3</t>
@@ -1385,25 +1379,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%97</t>
   </si>
   <si>
-    <t>全球變暗</t>
+    <t>全球变暗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96%E6%BD%9B%E5%8B%A2</t>
   </si>
   <si>
-    <t>全球暖化潛勢</t>
+    <t>全球暖化潜势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E9%A9%85%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>輻射驅動力</t>
+    <t>辐射驱动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B3%B6%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>熱島效應</t>
+    <t>热岛效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%85%A7%E7%8E%87</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E9%B9%BD%E7%92%B0%E6%B5%81</t>
   </si>
   <si>
-    <t>溫鹽環流</t>
+    <t>温盐环流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%B0%94%E5%B0%BC%E8%AF%BA-%E5%8D%97%E6%96%B9%E6%8C%AF%E8%8D%A1%E7%8E%B0%E8%B1%A1</t>
@@ -1451,19 +1445,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%BC%A2%E6%A3%AE</t>
   </si>
   <si>
-    <t>詹姆斯·漢森</t>
+    <t>詹姆斯·汉森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E5%AE%9A%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>否定氣候變化</t>
+    <t>否定气候变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96%E9%98%B4%E8%B0%8B%E8%AE%BA</t>
@@ -1475,13 +1469,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%BA%E7%A7%91%E5%AD%B8%E9%81%8A%E8%A1%8C</t>
   </si>
   <si>
-    <t>為科學遊行</t>
+    <t>为科学游行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%B0%A3%E5%80%99%E8%AE%8A%E5%8C%96%E6%A1%86%E6%9E%B6%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>聯合國氣候變化框架公約</t>
+    <t>联合国气候变化框架公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%BA%E6%B0%A7%E4%BA%8B%E4%BB%B6</t>
@@ -1499,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E7%94%B2%E7%83%B7%E9%87%8B%E5%87%BA</t>
   </si>
   <si>
-    <t>北極甲烷釋出</t>
+    <t>北极甲烷释出</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B9%B3%E9%9D%A2%E4%B8%8A%E5%8D%87</t>
@@ -1523,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AD%E6%B0%A7%E5%B1%A4%E7%A0%B4%E6%B4%9E</t>
   </si>
   <si>
-    <t>臭氧層破洞</t>
+    <t>臭氧层破洞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0%E5%B9%B3%E6%B5%81%E5%B1%82%E4%BA%91</t>
@@ -1535,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%8E%A7%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>失控溫室效應</t>
+    <t>失控温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B4%81%E5%8F%91%E5%B1%95%E6%9C%BA%E5%88%B6</t>
@@ -1565,13 +1559,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%94%B6%E9%9B%86%E5%8F%8A%E5%84%B2%E5%AD%98</t>
   </si>
   <si>
-    <t>碳收集及儲存</t>
+    <t>碳收集及储存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E7%A2%B3%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>低碳經濟</t>
+    <t>低碳经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%83%BD</t>
@@ -1583,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>簡單生活</t>
+    <t>简单生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%8C%AF</t>
   </si>
   <si>
-    <t>碳匯</t>
+    <t>碳汇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E5%80%99%E5%B7%A5%E7%A8%8B</t>
@@ -1601,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E5%9C%B0%E5%BE%A9%E8%82%B2</t>
   </si>
   <si>
-    <t>林地復育</t>
+    <t>林地复育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%B7%A1%E5%8C%96</t>
@@ -2883,7 +2877,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>14</v>
@@ -2909,10 +2903,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2938,10 +2932,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -2967,10 +2961,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2996,10 +2990,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3025,10 +3019,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -3054,10 +3048,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3083,10 +3077,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3112,10 +3106,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3141,10 +3135,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3170,10 +3164,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3199,10 +3193,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3228,10 +3222,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3257,10 +3251,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -3286,10 +3280,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3315,10 +3309,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3344,10 +3338,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3373,10 +3367,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3402,10 +3396,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3431,10 +3425,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3460,10 +3454,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3489,10 +3483,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -3518,10 +3512,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3547,10 +3541,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3576,10 +3570,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3605,10 +3599,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3634,10 +3628,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3663,10 +3657,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3692,10 +3686,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3721,10 +3715,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3750,10 +3744,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3779,10 +3773,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3837,10 +3831,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3866,10 +3860,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>4</v>
@@ -3895,10 +3889,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>10</v>
@@ -3924,10 +3918,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3953,10 +3947,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>23</v>
@@ -3982,10 +3976,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4011,10 +4005,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4040,10 +4034,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>5</v>
@@ -4069,10 +4063,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4098,10 +4092,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>16</v>
@@ -4127,10 +4121,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4156,10 +4150,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4185,10 +4179,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4214,10 +4208,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -4243,10 +4237,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4301,10 +4295,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4330,10 +4324,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4359,10 +4353,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>16</v>
@@ -4388,10 +4382,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4417,10 +4411,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4446,10 +4440,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4475,10 +4469,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4504,10 +4498,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4533,10 +4527,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4562,10 +4556,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4591,10 +4585,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4620,10 +4614,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4649,10 +4643,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4678,10 +4672,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4707,10 +4701,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4736,10 +4730,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4765,10 +4759,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4794,10 +4788,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4823,10 +4817,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4852,10 +4846,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4881,10 +4875,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4910,10 +4904,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4939,10 +4933,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4968,10 +4962,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -4997,10 +4991,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>8</v>
@@ -5026,10 +5020,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5055,10 +5049,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5084,10 +5078,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -5113,10 +5107,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5142,10 +5136,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5171,10 +5165,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5200,10 +5194,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5229,10 +5223,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>7</v>
@@ -5258,10 +5252,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5287,10 +5281,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5316,10 +5310,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5345,10 +5339,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5374,10 +5368,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5403,10 +5397,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5432,10 +5426,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5461,10 +5455,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5490,10 +5484,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5519,10 +5513,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5548,10 +5542,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5577,10 +5571,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5606,10 +5600,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -5635,10 +5629,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -5664,10 +5658,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5693,10 +5687,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5722,10 +5716,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5751,10 +5745,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5780,10 +5774,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5809,10 +5803,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5838,10 +5832,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>5</v>
@@ -5867,10 +5861,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5896,10 +5890,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5925,10 +5919,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5954,10 +5948,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5983,10 +5977,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6012,10 +6006,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6041,10 +6035,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6070,10 +6064,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6099,10 +6093,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6128,10 +6122,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6157,10 +6151,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6186,10 +6180,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -6215,10 +6209,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6244,10 +6238,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6273,10 +6267,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6302,10 +6296,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6331,10 +6325,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6360,10 +6354,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6389,10 +6383,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6418,10 +6412,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6447,10 +6441,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6476,10 +6470,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>306</v>
+      </c>
+      <c r="F156" t="s">
         <v>307</v>
-      </c>
-      <c r="F156" t="s">
-        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>10</v>
@@ -6505,10 +6499,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" t="s">
         <v>309</v>
-      </c>
-      <c r="F157" t="s">
-        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6534,10 +6528,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>310</v>
+      </c>
+      <c r="F158" t="s">
         <v>311</v>
-      </c>
-      <c r="F158" t="s">
-        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6563,10 +6557,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>312</v>
+      </c>
+      <c r="F159" t="s">
         <v>313</v>
-      </c>
-      <c r="F159" t="s">
-        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6592,10 +6586,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>314</v>
+      </c>
+      <c r="F160" t="s">
         <v>315</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6621,10 +6615,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>316</v>
+      </c>
+      <c r="F161" t="s">
         <v>317</v>
-      </c>
-      <c r="F161" t="s">
-        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6650,10 +6644,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>318</v>
+      </c>
+      <c r="F162" t="s">
         <v>319</v>
-      </c>
-      <c r="F162" t="s">
-        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6679,10 +6673,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>320</v>
+      </c>
+      <c r="F163" t="s">
         <v>321</v>
-      </c>
-      <c r="F163" t="s">
-        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6708,10 +6702,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>322</v>
+      </c>
+      <c r="F164" t="s">
         <v>323</v>
-      </c>
-      <c r="F164" t="s">
-        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6737,10 +6731,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" t="s">
         <v>325</v>
-      </c>
-      <c r="F165" t="s">
-        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6766,10 +6760,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6795,10 +6789,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6824,10 +6818,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6853,10 +6847,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6882,10 +6876,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6911,10 +6905,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6940,10 +6934,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6969,10 +6963,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>206</v>
+      </c>
+      <c r="F173" t="s">
         <v>207</v>
-      </c>
-      <c r="F173" t="s">
-        <v>208</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6998,10 +6992,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7027,10 +7021,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7085,10 +7079,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7114,10 +7108,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7143,10 +7137,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7172,10 +7166,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7201,10 +7195,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7230,10 +7224,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7259,10 +7253,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7288,10 +7282,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7317,10 +7311,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>360</v>
+      </c>
+      <c r="F185" t="s">
         <v>361</v>
-      </c>
-      <c r="F185" t="s">
-        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7346,10 +7340,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" t="s">
         <v>363</v>
-      </c>
-      <c r="F186" t="s">
-        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7375,10 +7369,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>364</v>
+      </c>
+      <c r="F187" t="s">
         <v>365</v>
-      </c>
-      <c r="F187" t="s">
-        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7404,10 +7398,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>366</v>
+      </c>
+      <c r="F188" t="s">
         <v>367</v>
-      </c>
-      <c r="F188" t="s">
-        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7433,10 +7427,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>368</v>
+      </c>
+      <c r="F189" t="s">
         <v>369</v>
-      </c>
-      <c r="F189" t="s">
-        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7462,10 +7456,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>370</v>
+      </c>
+      <c r="F190" t="s">
         <v>371</v>
-      </c>
-      <c r="F190" t="s">
-        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -7491,10 +7485,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>372</v>
+      </c>
+      <c r="F191" t="s">
         <v>373</v>
-      </c>
-      <c r="F191" t="s">
-        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7520,10 +7514,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>374</v>
+      </c>
+      <c r="F192" t="s">
         <v>375</v>
-      </c>
-      <c r="F192" t="s">
-        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7549,10 +7543,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>376</v>
+      </c>
+      <c r="F193" t="s">
         <v>377</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>20</v>
@@ -7578,10 +7572,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>378</v>
+      </c>
+      <c r="F194" t="s">
         <v>379</v>
-      </c>
-      <c r="F194" t="s">
-        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7607,10 +7601,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>380</v>
+      </c>
+      <c r="F195" t="s">
         <v>381</v>
-      </c>
-      <c r="F195" t="s">
-        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7636,10 +7630,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>382</v>
+      </c>
+      <c r="F196" t="s">
         <v>383</v>
-      </c>
-      <c r="F196" t="s">
-        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7665,10 +7659,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
         <v>385</v>
-      </c>
-      <c r="F197" t="s">
-        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>13</v>
@@ -7694,10 +7688,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>386</v>
+      </c>
+      <c r="F198" t="s">
         <v>387</v>
-      </c>
-      <c r="F198" t="s">
-        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7723,10 +7717,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>388</v>
+      </c>
+      <c r="F199" t="s">
         <v>389</v>
-      </c>
-      <c r="F199" t="s">
-        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7752,10 +7746,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>390</v>
+      </c>
+      <c r="F200" t="s">
         <v>391</v>
-      </c>
-      <c r="F200" t="s">
-        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7781,10 +7775,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>392</v>
+      </c>
+      <c r="F201" t="s">
         <v>393</v>
-      </c>
-      <c r="F201" t="s">
-        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7810,10 +7804,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>394</v>
+      </c>
+      <c r="F202" t="s">
         <v>395</v>
-      </c>
-      <c r="F202" t="s">
-        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7839,10 +7833,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>396</v>
+      </c>
+      <c r="F203" t="s">
         <v>397</v>
-      </c>
-      <c r="F203" t="s">
-        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7868,10 +7862,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>398</v>
+      </c>
+      <c r="F204" t="s">
         <v>399</v>
-      </c>
-      <c r="F204" t="s">
-        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7897,10 +7891,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>400</v>
+      </c>
+      <c r="F205" t="s">
         <v>401</v>
-      </c>
-      <c r="F205" t="s">
-        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7926,10 +7920,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>402</v>
+      </c>
+      <c r="F206" t="s">
         <v>403</v>
-      </c>
-      <c r="F206" t="s">
-        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7955,10 +7949,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>404</v>
+      </c>
+      <c r="F207" t="s">
         <v>405</v>
-      </c>
-      <c r="F207" t="s">
-        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7984,10 +7978,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>406</v>
+      </c>
+      <c r="F208" t="s">
         <v>407</v>
-      </c>
-      <c r="F208" t="s">
-        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8013,10 +8007,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>408</v>
+      </c>
+      <c r="F209" t="s">
         <v>409</v>
-      </c>
-      <c r="F209" t="s">
-        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8042,10 +8036,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210" t="s">
         <v>411</v>
-      </c>
-      <c r="F210" t="s">
-        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8071,10 +8065,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>412</v>
+      </c>
+      <c r="F211" t="s">
         <v>413</v>
-      </c>
-      <c r="F211" t="s">
-        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>20</v>
@@ -8100,10 +8094,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>414</v>
+      </c>
+      <c r="F212" t="s">
         <v>415</v>
-      </c>
-      <c r="F212" t="s">
-        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8129,10 +8123,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>416</v>
+      </c>
+      <c r="F213" t="s">
         <v>417</v>
-      </c>
-      <c r="F213" t="s">
-        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8158,10 +8152,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>418</v>
+      </c>
+      <c r="F214" t="s">
         <v>419</v>
-      </c>
-      <c r="F214" t="s">
-        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8187,10 +8181,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>420</v>
+      </c>
+      <c r="F215" t="s">
         <v>421</v>
-      </c>
-      <c r="F215" t="s">
-        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8216,10 +8210,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>422</v>
+      </c>
+      <c r="F216" t="s">
         <v>423</v>
-      </c>
-      <c r="F216" t="s">
-        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8245,10 +8239,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>424</v>
+      </c>
+      <c r="F217" t="s">
         <v>425</v>
-      </c>
-      <c r="F217" t="s">
-        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8274,10 +8268,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>426</v>
+      </c>
+      <c r="F218" t="s">
         <v>427</v>
-      </c>
-      <c r="F218" t="s">
-        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8303,10 +8297,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>428</v>
+      </c>
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219" t="s">
-        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8332,10 +8326,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>430</v>
+      </c>
+      <c r="F220" t="s">
         <v>431</v>
-      </c>
-      <c r="F220" t="s">
-        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>5</v>
@@ -8361,10 +8355,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>432</v>
+      </c>
+      <c r="F221" t="s">
         <v>433</v>
-      </c>
-      <c r="F221" t="s">
-        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8390,10 +8384,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>434</v>
+      </c>
+      <c r="F222" t="s">
         <v>435</v>
-      </c>
-      <c r="F222" t="s">
-        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8419,10 +8413,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>436</v>
+      </c>
+      <c r="F223" t="s">
         <v>437</v>
-      </c>
-      <c r="F223" t="s">
-        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8448,10 +8442,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>438</v>
+      </c>
+      <c r="F224" t="s">
         <v>439</v>
-      </c>
-      <c r="F224" t="s">
-        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8477,10 +8471,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>440</v>
+      </c>
+      <c r="F225" t="s">
         <v>441</v>
-      </c>
-      <c r="F225" t="s">
-        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8506,10 +8500,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>442</v>
+      </c>
+      <c r="F226" t="s">
         <v>443</v>
-      </c>
-      <c r="F226" t="s">
-        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8535,10 +8529,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>444</v>
+      </c>
+      <c r="F227" t="s">
         <v>445</v>
-      </c>
-      <c r="F227" t="s">
-        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8564,10 +8558,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
         <v>11</v>
@@ -8593,10 +8587,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8622,10 +8616,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8651,10 +8645,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8680,10 +8674,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8709,10 +8703,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8738,10 +8732,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8767,10 +8761,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -8796,10 +8790,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8825,10 +8819,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8854,10 +8848,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8883,10 +8877,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>126</v>
+      </c>
+      <c r="F239" t="s">
         <v>127</v>
-      </c>
-      <c r="F239" t="s">
-        <v>128</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8912,10 +8906,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -8941,10 +8935,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8970,10 +8964,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8999,10 +8993,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>324</v>
+      </c>
+      <c r="F243" t="s">
         <v>325</v>
-      </c>
-      <c r="F243" t="s">
-        <v>326</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9028,10 +9022,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9057,10 +9051,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9086,10 +9080,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9115,10 +9109,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9144,10 +9138,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9173,10 +9167,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9202,10 +9196,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9231,10 +9225,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9260,10 +9254,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9289,10 +9283,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9318,10 +9312,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>5</v>
@@ -9347,10 +9341,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9376,10 +9370,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9405,10 +9399,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9434,10 +9428,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9463,10 +9457,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9492,10 +9486,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9521,10 +9515,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>332</v>
+      </c>
+      <c r="F261" t="s">
         <v>333</v>
-      </c>
-      <c r="F261" t="s">
-        <v>334</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9550,10 +9544,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F262" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9579,10 +9573,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>336</v>
+      </c>
+      <c r="F263" t="s">
         <v>337</v>
-      </c>
-      <c r="F263" t="s">
-        <v>338</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9608,10 +9602,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9637,10 +9631,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9666,10 +9660,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9695,10 +9689,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9724,10 +9718,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9753,10 +9747,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9782,10 +9776,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9811,10 +9805,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9840,10 +9834,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9869,10 +9863,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9898,10 +9892,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
